--- a/PatientInfo.xlsx
+++ b/PatientInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msolufse/Documents/GitHub/ValsalvaSoftware10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msolufse/Dropbox/JovePaper/ValsalvaAnalyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A1A023-7A5A-1F4C-8AAA-8336E581C62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF643E0-420B-B941-AB9E-EC1CF2B33FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="500" windowWidth="10960" windowHeight="16480" xr2:uid="{06F6A999-53BF-B449-BB3D-DFF7DDB73FC3}"/>
+    <workbookView xWindow="33600" yWindow="5340" windowWidth="18340" windowHeight="12280" xr2:uid="{06F6A999-53BF-B449-BB3D-DFF7DDB73FC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Height</t>
   </si>
@@ -50,33 +50,9 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Ex 1</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>Ex 2</t>
-  </si>
-  <si>
-    <t>Ex 6</t>
-  </si>
-  <si>
-    <t>Ex 10</t>
-  </si>
-  <si>
-    <t>Ex 15</t>
-  </si>
-  <si>
-    <t>Ex 21</t>
-  </si>
-  <si>
-    <t>Ex 22</t>
-  </si>
-  <si>
-    <t>Ex H</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -90,13 +66,79 @@
   </si>
   <si>
     <t>(m/f)</t>
+  </si>
+  <si>
+    <t>Sub 1</t>
+  </si>
+  <si>
+    <t>Sub 2</t>
+  </si>
+  <si>
+    <t>Sub 3</t>
+  </si>
+  <si>
+    <t>Sub 4</t>
+  </si>
+  <si>
+    <t>Sub 5</t>
+  </si>
+  <si>
+    <t>Sub 6</t>
+  </si>
+  <si>
+    <t>Sub 7</t>
+  </si>
+  <si>
+    <t>Sub 8</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>(kg/m2)</t>
+  </si>
+  <si>
+    <t>Characteristics</t>
+  </si>
+  <si>
+    <t>(nw)</t>
+  </si>
+  <si>
+    <t>(ob)</t>
+  </si>
+  <si>
+    <t>(ow)</t>
+  </si>
+  <si>
+    <t>Normal response</t>
+  </si>
+  <si>
+    <t>POTS. Note big overshoot (N-pattern)</t>
+  </si>
+  <si>
+    <t>Normal response w/excessive ovefshoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POTS. Note no overshoot </t>
+  </si>
+  <si>
+    <t>BMI info</t>
+  </si>
+  <si>
+    <t>Diminished BP recovery during VM</t>
+  </si>
+  <si>
+    <t>Low BP drop following VM (early phase 2)</t>
+  </si>
+  <si>
+    <t>Excessive BP overshoot (phase 4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,23 +147,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -129,17 +191,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -159,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -305,7 +445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,182 +595,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F81A4A-5B32-4C4F-998B-6033751F1BAD}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>180</v>
+      </c>
+      <c r="E3" s="5">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>187</v>
+      </c>
+      <c r="E4" s="5">
+        <v>93</v>
+      </c>
+      <c r="F4" s="5">
+        <v>26.6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>176</v>
+      </c>
+      <c r="E5" s="5">
+        <v>92</v>
+      </c>
+      <c r="F5" s="5">
+        <v>29.7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>185</v>
+      </c>
+      <c r="E6" s="5">
+        <v>110</v>
+      </c>
+      <c r="F6" s="5">
+        <v>32.1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B7" s="5">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>165</v>
+      </c>
+      <c r="E7" s="5">
+        <v>85</v>
+      </c>
+      <c r="F7" s="5">
+        <v>31.2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>170</v>
+      </c>
+      <c r="E8" s="5">
+        <v>107</v>
+      </c>
+      <c r="F8" s="5">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>177</v>
+      </c>
+      <c r="E9" s="5">
+        <v>84</v>
+      </c>
+      <c r="F9" s="5">
+        <v>26.8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B10" s="17">
+        <v>58</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
-        <v>180</v>
-      </c>
-      <c r="E3" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="D10" s="17">
+        <v>166</v>
+      </c>
+      <c r="E10" s="17">
+        <v>77</v>
+      </c>
+      <c r="F10" s="17">
+        <v>27.9</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>187</v>
-      </c>
-      <c r="E4" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>193</v>
-      </c>
-      <c r="E5" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>176</v>
-      </c>
-      <c r="E6" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>180</v>
-      </c>
-      <c r="E7" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>188</v>
-      </c>
-      <c r="E8" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>185</v>
-      </c>
-      <c r="E9" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>165</v>
-      </c>
-      <c r="E10" s="1">
-        <v>85</v>
-      </c>
+      <c r="I10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/PatientInfo.xlsx
+++ b/PatientInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msolufse/Dropbox/JovePaper/ValsalvaAnalyzer_FinalRuns/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msolufse/Documents/GitHub/ValsalvaAnalyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5076309E-A0CE-FE4B-8110-836AA8F86894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EE052F-F157-C243-9C95-88A32510A658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="760" windowWidth="22240" windowHeight="17740" xr2:uid="{06F6A999-53BF-B449-BB3D-DFF7DDB73FC3}"/>
+    <workbookView xWindow="6760" yWindow="760" windowWidth="22240" windowHeight="17680" xr2:uid="{06F6A999-53BF-B449-BB3D-DFF7DDB73FC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Height</t>
   </si>
@@ -134,28 +134,7 @@
     <t>Negligible BP drop in early phase II. HR artefacts due to ECG signal noise. BP artefacts in phase IV</t>
   </si>
   <si>
-    <t>HPV patient</t>
-  </si>
-  <si>
-    <t>BD 10 pre Val 1 ove 07/05/85</t>
-  </si>
-  <si>
-    <t>BD 01 pre Val 107/06/89</t>
-  </si>
-  <si>
-    <t>BD 02 pre Val 1 30/06/90</t>
-  </si>
-  <si>
-    <t>BD 19 post Val 1 02/05/78</t>
-  </si>
-  <si>
-    <t>Opiod 19 Val 2 Val 2 07/06/79</t>
-  </si>
-  <si>
-    <t>Opiod 02 post Val 1 19/09/59</t>
-  </si>
-  <si>
-    <t>Opiod 17 post Val 1 13/12/62</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -163,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -256,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -313,14 +292,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,7 +615,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +697,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
@@ -750,7 +726,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,7 +755,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,7 +784,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
@@ -866,7 +842,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
@@ -895,7 +871,7 @@
         <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -924,11 +900,11 @@
         <v>31</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
